--- a/data/trans_orig/P36B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92064C6E-4A2E-4CDB-9DF9-20181C0B5097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB36554-6F94-408F-BA34-8CFC9670C776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B1A299A-3A6B-4B99-B7F5-842F1ACC6ED3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1068FCAF-54B5-4575-95A2-01CC672EBFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="833">
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="834">
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,2467 +76,2470 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>30,48%</t>
   </si>
 </sst>
 </file>
@@ -2948,7 +2951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC266D6-C507-497B-B9FF-05F27EDB0A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04F23B5-A6F1-47FB-80D6-818BB695E9FF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3401,7 +3404,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3410,13 +3413,13 @@
         <v>34481</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3823,13 @@
         <v>364813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3844,13 @@
         <v>264838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>306</v>
@@ -3856,13 +3859,13 @@
         <v>320247</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>561</v>
@@ -3871,13 +3874,13 @@
         <v>585086</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3895,13 @@
         <v>127148</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -3907,13 +3910,13 @@
         <v>178194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -3922,13 +3925,13 @@
         <v>305342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3987,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3996,13 +3999,13 @@
         <v>8566</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4062,13 +4065,13 @@
         <v>17261</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -4077,7 +4080,7 @@
         <v>45470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>167</v>
@@ -4185,7 +4188,7 @@
         <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4203,13 @@
         <v>125482</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -4215,13 +4218,13 @@
         <v>173338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -4230,13 +4233,13 @@
         <v>298820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,7 +4295,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4304,13 +4307,13 @@
         <v>6666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4319,13 +4322,13 @@
         <v>2259</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -4334,13 +4337,13 @@
         <v>8925</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4358,13 @@
         <v>14030</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4370,13 +4373,13 @@
         <v>12322</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -4385,13 +4388,13 @@
         <v>26351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4409,13 @@
         <v>93445</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>87</v>
@@ -4421,13 +4424,13 @@
         <v>88657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>181</v>
@@ -4436,13 +4439,13 @@
         <v>182102</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4460,13 @@
         <v>159567</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>172</v>
@@ -4472,13 +4475,13 @@
         <v>176342</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>336</v>
@@ -4487,13 +4490,13 @@
         <v>335909</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4511,13 @@
         <v>112168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -4523,13 +4526,13 @@
         <v>124406</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>234</v>
@@ -4538,13 +4541,13 @@
         <v>236574</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,7 +4603,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4612,13 +4615,13 @@
         <v>1804</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -4627,13 +4630,13 @@
         <v>5192</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -4642,13 +4645,13 @@
         <v>6996</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4666,13 @@
         <v>13263</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -4678,13 +4681,13 @@
         <v>19584</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -4693,13 +4696,13 @@
         <v>32847</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4717,13 @@
         <v>116950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -4729,13 +4732,13 @@
         <v>125893</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>242</v>
@@ -4744,13 +4747,13 @@
         <v>242844</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4768,13 @@
         <v>218294</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -4780,10 +4783,10 @@
         <v>291742</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>267</v>
@@ -4923,10 +4926,10 @@
         <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -4935,13 +4938,13 @@
         <v>41576</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M40" s="7">
         <v>115</v>
@@ -4950,13 +4953,13 @@
         <v>114452</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5004,13 @@
         <v>374295</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,16 +5022,16 @@
         <v>885</v>
       </c>
       <c r="D42" s="7">
-        <v>903964</v>
+        <v>903965</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>780</v>
@@ -5037,13 +5040,13 @@
         <v>788433</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>1665</v>
@@ -5052,13 +5055,13 @@
         <v>1692398</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,16 +5073,16 @@
         <v>1359</v>
       </c>
       <c r="D43" s="7">
-        <v>1384429</v>
+        <v>1384430</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>1424</v>
@@ -5088,13 +5091,13 @@
         <v>1460208</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>2783</v>
@@ -5103,13 +5106,13 @@
         <v>2844638</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5127,13 @@
         <v>686702</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>908</v>
@@ -5139,13 +5142,13 @@
         <v>941363</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M44" s="7">
         <v>1579</v>
@@ -5154,13 +5157,13 @@
         <v>1628064</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,7 +5175,7 @@
         <v>3213</v>
       </c>
       <c r="D45" s="7">
-        <v>3275709</v>
+        <v>3275710</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5238,7 +5241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECC4711-093E-484E-8ACC-0A4AA2058E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EDD8E2-89CE-4FD5-B964-59DDE8530CFB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5255,7 +5258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5362,13 +5365,13 @@
         <v>20952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5377,13 +5380,13 @@
         <v>12914</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -5392,13 +5395,13 @@
         <v>33866</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5416,13 @@
         <v>43913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5428,13 +5431,13 @@
         <v>27330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -5443,13 +5446,13 @@
         <v>71243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5467,13 @@
         <v>155998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>112</v>
@@ -5479,13 +5482,13 @@
         <v>115231</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -5494,13 +5497,13 @@
         <v>271229</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5518,13 @@
         <v>136089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -5530,13 +5533,13 @@
         <v>143073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -5545,13 +5548,13 @@
         <v>279161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5569,13 @@
         <v>97194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -5581,13 +5584,13 @@
         <v>130741</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -5596,13 +5599,13 @@
         <v>227935</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5673,13 @@
         <v>10213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5685,13 +5688,13 @@
         <v>7960</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5700,7 +5703,7 @@
         <v>18174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>371</v>
@@ -5754,7 +5757,7 @@
         <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>380</v>
@@ -5808,7 +5811,7 @@
         <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,10 +5981,10 @@
         <v>10710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>407</v>
@@ -6011,7 +6014,7 @@
         <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>412</v>
@@ -6035,7 +6038,7 @@
         <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6044,13 +6047,13 @@
         <v>22219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6059,13 +6062,13 @@
         <v>45293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,10 +6203,10 @@
         <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>555</v>
@@ -6212,13 +6215,13 @@
         <v>588774</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,7 +6277,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6286,13 +6289,13 @@
         <v>5463</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6301,13 +6304,13 @@
         <v>2092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -6316,13 +6319,13 @@
         <v>7555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6340,13 @@
         <v>17874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6352,13 +6355,13 @@
         <v>8437</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -6367,13 +6370,13 @@
         <v>26310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>202</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,13 +6391,13 @@
         <v>144742</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -6403,13 +6406,13 @@
         <v>93009</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>211</v>
@@ -6418,13 +6421,13 @@
         <v>237751</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,10 +6442,10 @@
         <v>218633</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>471</v>
@@ -6460,7 +6463,7 @@
         <v>473</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>474</v>
       </c>
       <c r="M25" s="7">
         <v>363</v>
@@ -6469,13 +6472,13 @@
         <v>415007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6493,13 @@
         <v>225865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>276</v>
@@ -6505,13 +6508,13 @@
         <v>312141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M26" s="7">
         <v>478</v>
@@ -6520,13 +6523,13 @@
         <v>538006</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,7 +6585,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6594,13 +6597,13 @@
         <v>4205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6609,13 +6612,13 @@
         <v>2244</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>487</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>488</v>
+        <v>286</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6624,13 +6627,13 @@
         <v>6449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>488</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>489</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>490</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,13 +6648,13 @@
         <v>12667</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>492</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6660,13 +6663,13 @@
         <v>9454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6675,13 +6678,13 @@
         <v>22121</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>490</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6699,13 @@
         <v>80818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H30" s="7">
         <v>62</v>
@@ -6711,13 +6714,13 @@
         <v>67095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M30" s="7">
         <v>135</v>
@@ -6726,13 +6729,13 @@
         <v>147914</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +6750,13 @@
         <v>146558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H31" s="7">
         <v>143</v>
@@ -6762,13 +6765,13 @@
         <v>158323</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M31" s="7">
         <v>276</v>
@@ -6777,13 +6780,13 @@
         <v>304881</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,13 +6801,13 @@
         <v>185180</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H32" s="7">
         <v>191</v>
@@ -6813,13 +6816,13 @@
         <v>208849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>516</v>
+        <v>402</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>312</v>
+        <v>517</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M32" s="7">
         <v>362</v>
@@ -6828,13 +6831,13 @@
         <v>394030</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,7 +6893,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6902,7 +6905,7 @@
         <v>4062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>521</v>
+        <v>154</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>522</v>
@@ -6917,10 +6920,10 @@
         <v>4476</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>369</v>
+        <v>524</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>525</v>
@@ -6932,13 +6935,13 @@
         <v>8539</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>526</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6956,13 @@
         <v>16518</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -6968,10 +6971,10 @@
         <v>15694</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>411</v>
+        <v>529</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>530</v>
@@ -6983,13 +6986,13 @@
         <v>32212</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,7 +7013,7 @@
         <v>534</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>143</v>
+        <v>535</v>
       </c>
       <c r="H36" s="7">
         <v>77</v>
@@ -7019,13 +7022,13 @@
         <v>81616</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M36" s="7">
         <v>142</v>
@@ -7034,13 +7037,13 @@
         <v>154456</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7058,13 @@
         <v>203121</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>46</v>
+        <v>543</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -7070,13 +7073,13 @@
         <v>255424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>546</v>
       </c>
       <c r="M37" s="7">
         <v>417</v>
@@ -7085,13 +7088,13 @@
         <v>458544</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7109,13 @@
         <v>258957</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H38" s="7">
         <v>358</v>
@@ -7121,13 +7124,13 @@
         <v>383838</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M38" s="7">
         <v>596</v>
@@ -7136,13 +7139,13 @@
         <v>642794</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7213,13 @@
         <v>55607</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>282</v>
+        <v>411</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H40" s="7">
         <v>35</v>
@@ -7225,13 +7228,13 @@
         <v>36451</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>286</v>
+        <v>455</v>
       </c>
       <c r="M40" s="7">
         <v>90</v>
@@ -7240,13 +7243,13 @@
         <v>92058</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>559</v>
+        <v>452</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7264,13 @@
         <v>148724</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>14</v>
+        <v>566</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>562</v>
+        <v>326</v>
       </c>
       <c r="H41" s="7">
         <v>97</v>
@@ -7276,13 +7279,13 @@
         <v>103957</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>419</v>
+        <v>568</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M41" s="7">
         <v>240</v>
@@ -7291,13 +7294,13 @@
         <v>252680</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7315,13 @@
         <v>781950</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>365</v>
+        <v>573</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H42" s="7">
         <v>545</v>
@@ -7327,13 +7330,13 @@
         <v>585032</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M42" s="7">
         <v>1287</v>
@@ -7342,13 +7345,13 @@
         <v>1366982</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7366,13 @@
         <v>1204983</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="H43" s="7">
         <v>1101</v>
@@ -7378,13 +7381,13 @@
         <v>1185243</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="M43" s="7">
         <v>2211</v>
@@ -7393,13 +7396,13 @@
         <v>2390226</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>580</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7417,13 @@
         <v>1228309</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="H44" s="7">
         <v>1513</v>
@@ -7429,13 +7432,13 @@
         <v>1637794</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>220</v>
+        <v>590</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M44" s="7">
         <v>2665</v>
@@ -7444,13 +7447,13 @@
         <v>2866102</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>588</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,7 +7509,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7528,7 +7531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFEFAF7-E04E-4507-85A4-38B6FEB3240D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E970D-F6A2-46F5-9640-64F5167E4653}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7545,7 +7548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7652,13 +7655,13 @@
         <v>9462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>590</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>597</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -7667,13 +7670,13 @@
         <v>17167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -7682,13 +7685,13 @@
         <v>26629</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>595</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>414</v>
+        <v>601</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,13 +7706,13 @@
         <v>23116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>597</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -7718,13 +7721,13 @@
         <v>20472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>605</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -7733,13 +7736,13 @@
         <v>43589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>609</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,10 +7760,10 @@
         <v>125</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -7769,13 +7772,13 @@
         <v>107732</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>148</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="M6" s="7">
         <v>230</v>
@@ -7784,13 +7787,13 @@
         <v>234830</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7808,13 @@
         <v>172985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -7820,13 +7823,13 @@
         <v>153736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>623</v>
       </c>
       <c r="M7" s="7">
         <v>321</v>
@@ -7835,13 +7838,13 @@
         <v>326721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7859,13 @@
         <v>83599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>629</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -7871,13 +7874,13 @@
         <v>94716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>631</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>621</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -7886,13 +7889,13 @@
         <v>178315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>632</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7963,13 @@
         <v>12916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>624</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>635</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>636</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7975,13 +7978,13 @@
         <v>7794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>527</v>
+        <v>637</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>626</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -7990,13 +7993,13 @@
         <v>20710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +8014,13 @@
         <v>33416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -8026,13 +8029,13 @@
         <v>15466</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>646</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>592</v>
+        <v>647</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -8041,13 +8044,13 @@
         <v>48882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>635</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8065,13 @@
         <v>139441</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>187</v>
+        <v>631</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>126</v>
+        <v>651</v>
       </c>
       <c r="H12" s="7">
         <v>136</v>
@@ -8077,13 +8080,13 @@
         <v>131024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="M12" s="7">
         <v>270</v>
@@ -8092,13 +8095,13 @@
         <v>270465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>641</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,10 +8119,10 @@
         <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -8128,13 +8131,13 @@
         <v>237058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="M13" s="7">
         <v>489</v>
@@ -8143,13 +8146,13 @@
         <v>490274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8167,13 @@
         <v>149475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -8179,13 +8182,13 @@
         <v>168380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -8194,13 +8197,13 @@
         <v>317855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>659</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8271,13 @@
         <v>1976</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>672</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -8283,13 +8286,13 @@
         <v>6573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>556</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -8298,13 +8301,13 @@
         <v>8549</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>662</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>664</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8322,13 @@
         <v>33165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>677</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -8334,13 +8337,13 @@
         <v>12780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>660</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>680</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -8349,13 +8352,13 @@
         <v>45946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>668</v>
+        <v>603</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>669</v>
+        <v>457</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>670</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8370,13 +8373,13 @@
         <v>158271</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -8385,13 +8388,13 @@
         <v>125809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -8400,13 +8403,13 @@
         <v>284080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,13 +8424,13 @@
         <v>296970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>680</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>681</v>
+        <v>521</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -8436,13 +8439,13 @@
         <v>272708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>684</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -8451,13 +8454,13 @@
         <v>569678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>686</v>
+        <v>594</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8472,13 +8475,13 @@
         <v>177771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -8487,13 +8490,13 @@
         <v>241524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="M20" s="7">
         <v>405</v>
@@ -8502,13 +8505,13 @@
         <v>419294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,7 +8567,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8576,13 +8579,13 @@
         <v>6107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>679</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8591,13 +8594,13 @@
         <v>5310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>698</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>704</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -8606,13 +8609,13 @@
         <v>11417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>700</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,13 +8630,13 @@
         <v>27181</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>701</v>
+        <v>647</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>706</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -8642,13 +8645,13 @@
         <v>10209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -8657,13 +8660,13 @@
         <v>37390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>710</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8678,13 +8681,13 @@
         <v>151359</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="H24" s="7">
         <v>103</v>
@@ -8693,13 +8696,13 @@
         <v>111421</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -8708,13 +8711,13 @@
         <v>262781</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>711</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8729,13 +8732,13 @@
         <v>270667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="H25" s="7">
         <v>263</v>
@@ -8744,13 +8747,13 @@
         <v>283877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -8759,13 +8762,13 @@
         <v>554545</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8780,13 +8783,13 @@
         <v>183699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -8795,13 +8798,13 @@
         <v>236058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>732</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>733</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -8810,13 +8813,13 @@
         <v>419758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>735</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,7 +8875,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8884,7 +8887,7 @@
         <v>1108</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>155</v>
@@ -8899,13 +8902,13 @@
         <v>3324</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>114</v>
+        <v>738</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8914,13 +8917,13 @@
         <v>4432</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,10 +8941,10 @@
         <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>744</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>564</v>
+        <v>745</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -8950,13 +8953,13 @@
         <v>17721</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>556</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>735</v>
+        <v>19</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -8965,13 +8968,13 @@
         <v>27462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>747</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,13 +8989,13 @@
         <v>93823</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -9001,13 +9004,13 @@
         <v>63891</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="M30" s="7">
         <v>140</v>
@@ -9016,13 +9019,13 @@
         <v>157713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9037,13 +9040,13 @@
         <v>218363</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="H31" s="7">
         <v>188</v>
@@ -9052,13 +9055,13 @@
         <v>214553</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>751</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="M31" s="7">
         <v>384</v>
@@ -9067,13 +9070,13 @@
         <v>432915</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>754</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9088,13 +9091,13 @@
         <v>151842</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>757</v>
+        <v>295</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="H32" s="7">
         <v>168</v>
@@ -9103,13 +9106,13 @@
         <v>193971</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="M32" s="7">
         <v>301</v>
@@ -9118,13 +9121,13 @@
         <v>345813</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,7 +9183,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9192,13 +9195,13 @@
         <v>6832</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>765</v>
+        <v>635</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9207,13 +9210,13 @@
         <v>3230</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>769</v>
+        <v>66</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9222,13 +9225,13 @@
         <v>10062</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>488</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9243,13 +9246,13 @@
         <v>13361</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>772</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -9258,13 +9261,13 @@
         <v>14455</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>566</v>
+        <v>123</v>
       </c>
       <c r="M35" s="7">
         <v>26</v>
@@ -9273,13 +9276,13 @@
         <v>27816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>412</v>
+        <v>780</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>773</v>
+        <v>452</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9294,13 +9297,13 @@
         <v>87188</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="H36" s="7">
         <v>103</v>
@@ -9309,13 +9312,13 @@
         <v>122612</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="M36" s="7">
         <v>194</v>
@@ -9324,13 +9327,13 @@
         <v>209800</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,13 +9348,13 @@
         <v>294071</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="H37" s="7">
         <v>269</v>
@@ -9360,13 +9363,13 @@
         <v>320648</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>788</v>
+        <v>727</v>
       </c>
       <c r="M37" s="7">
         <v>580</v>
@@ -9375,13 +9378,13 @@
         <v>614719</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>789</v>
+        <v>307</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>89</v>
+        <v>795</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,13 +9399,13 @@
         <v>188952</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>791</v>
+        <v>45</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>793</v>
+        <v>179</v>
       </c>
       <c r="H38" s="7">
         <v>265</v>
@@ -9411,13 +9414,13 @@
         <v>313564</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="M38" s="7">
         <v>468</v>
@@ -9426,13 +9429,13 @@
         <v>502516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9500,13 +9503,13 @@
         <v>38401</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>769</v>
+        <v>640</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>158</v>
+        <v>709</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -9515,13 +9518,13 @@
         <v>43398</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="M40" s="7">
         <v>79</v>
@@ -9530,13 +9533,13 @@
         <v>81799</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>492</v>
+        <v>744</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>245</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,13 +9554,13 @@
         <v>139981</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>705</v>
+        <v>807</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="H41" s="7">
         <v>86</v>
@@ -9566,13 +9569,13 @@
         <v>91104</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>806</v>
+        <v>412</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>167</v>
+        <v>811</v>
       </c>
       <c r="M41" s="7">
         <v>216</v>
@@ -9581,13 +9584,13 @@
         <v>231085</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>455</v>
+        <v>567</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,13 +9605,13 @@
         <v>757181</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>810</v>
+        <v>175</v>
       </c>
       <c r="H42" s="7">
         <v>638</v>
@@ -9617,13 +9620,13 @@
         <v>662488</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="M42" s="7">
         <v>1352</v>
@@ -9632,13 +9635,13 @@
         <v>1419669</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>572</v>
+        <v>818</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,13 +9656,13 @@
         <v>1506272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="H43" s="7">
         <v>1400</v>
@@ -9668,13 +9671,13 @@
         <v>1482581</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="M43" s="7">
         <v>2847</v>
@@ -9683,13 +9686,13 @@
         <v>2988853</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9704,13 +9707,13 @@
         <v>935337</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>825</v>
+        <v>346</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>826</v>
+        <v>315</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>827</v>
+        <v>316</v>
       </c>
       <c r="H44" s="7">
         <v>1157</v>
@@ -9719,13 +9722,13 @@
         <v>1248213</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="M44" s="7">
         <v>2044</v>
@@ -9734,13 +9737,13 @@
         <v>2183550</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>832</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9796,7 +9799,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB36554-6F94-408F-BA34-8CFC9670C776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C80A09-641C-4366-AABF-36033A2AD54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1068FCAF-54B5-4575-95A2-01CC672EBFBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEFB0299-4431-4727-B5F2-BEC68AC0D5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="839">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,2470 +76,2485 @@
     <t>4,58%</t>
   </si>
   <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>33,71%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,48%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
 </sst>
 </file>
@@ -2951,7 +2966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04F23B5-A6F1-47FB-80D6-818BB695E9FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF3E455-B184-44B5-BADC-ADE5CB22C40A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3404,7 +3419,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3413,13 +3428,13 @@
         <v>34481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3449,13 @@
         <v>64605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -3449,13 +3464,13 @@
         <v>31325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -3464,13 +3479,13 @@
         <v>95930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3500,13 @@
         <v>193536</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>145</v>
@@ -3500,13 +3515,13 @@
         <v>149270</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>336</v>
@@ -3515,13 +3530,13 @@
         <v>342806</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3551,13 @@
         <v>336329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -3551,13 +3566,13 @@
         <v>278799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3566,13 +3581,13 @@
         <v>615128</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3602,13 @@
         <v>119376</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3602,13 +3617,13 @@
         <v>153261</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -3617,13 +3632,13 @@
         <v>272637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,7 +3694,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3691,13 +3706,13 @@
         <v>11569</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3706,13 +3721,13 @@
         <v>3952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3721,13 +3736,13 @@
         <v>15521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3757,13 @@
         <v>40098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3757,13 +3772,13 @@
         <v>17552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -3772,13 +3787,13 @@
         <v>57650</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3808,13 @@
         <v>195014</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>165</v>
@@ -3808,13 +3823,13 @@
         <v>169799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>349</v>
@@ -3823,13 +3838,13 @@
         <v>364813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,10 +3859,10 @@
         <v>264838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>136</v>
@@ -4005,7 +4020,7 @@
         <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4014,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -4029,13 +4044,13 @@
         <v>8566</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4095,13 @@
         <v>45470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4116,13 @@
         <v>148006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>99</v>
@@ -4116,13 +4131,13 @@
         <v>100512</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>234</v>
@@ -4131,13 +4146,13 @@
         <v>248518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4167,13 @@
         <v>208884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>220</v>
@@ -4167,13 +4182,13 @@
         <v>224531</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -4182,13 +4197,13 @@
         <v>433415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4218,13 @@
         <v>125482</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -4218,13 +4233,13 @@
         <v>173338</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -4233,13 +4248,13 @@
         <v>298820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,7 +4310,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4307,13 +4322,13 @@
         <v>6666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4322,13 +4337,13 @@
         <v>2259</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -4337,13 +4352,13 @@
         <v>8925</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4373,13 @@
         <v>14030</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4373,13 +4388,13 @@
         <v>12322</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -4388,13 +4403,13 @@
         <v>26351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4424,13 @@
         <v>93445</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>87</v>
@@ -4424,13 +4439,13 @@
         <v>88657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>181</v>
@@ -4439,13 +4454,13 @@
         <v>182102</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4475,13 @@
         <v>159567</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>172</v>
@@ -4475,13 +4490,13 @@
         <v>176342</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>336</v>
@@ -4490,13 +4505,13 @@
         <v>335909</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4526,13 @@
         <v>112168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -4526,13 +4541,13 @@
         <v>124406</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="M32" s="7">
         <v>234</v>
@@ -4541,13 +4556,13 @@
         <v>236574</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4618,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4615,13 +4630,13 @@
         <v>1804</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -4630,13 +4645,13 @@
         <v>5192</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -4645,13 +4660,13 @@
         <v>6996</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4681,13 @@
         <v>13263</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -4681,13 +4696,13 @@
         <v>19584</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -4696,13 +4711,13 @@
         <v>32847</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4732,13 @@
         <v>116950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -4732,13 +4747,13 @@
         <v>125893</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>242</v>
@@ -4747,13 +4762,13 @@
         <v>242844</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4783,13 @@
         <v>218294</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -4783,13 +4798,13 @@
         <v>291742</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>514</v>
@@ -4798,13 +4813,13 @@
         <v>510036</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4834,13 @@
         <v>152154</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H38" s="7">
         <v>230</v>
@@ -4834,13 +4849,13 @@
         <v>234432</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>387</v>
@@ -4849,13 +4864,13 @@
         <v>386586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4938,13 @@
         <v>72877</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -4938,13 +4953,13 @@
         <v>41576</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="M40" s="7">
         <v>115</v>
@@ -4953,13 +4968,13 @@
         <v>114452</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>287</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4989,13 @@
         <v>227737</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H41" s="7">
         <v>143</v>
@@ -4989,10 +5004,10 @@
         <v>146558</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>292</v>
@@ -5004,13 +5019,13 @@
         <v>374295</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,16 +5037,16 @@
         <v>885</v>
       </c>
       <c r="D42" s="7">
-        <v>903965</v>
+        <v>903964</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>780</v>
@@ -5040,13 +5055,13 @@
         <v>788433</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>1665</v>
@@ -5055,13 +5070,13 @@
         <v>1692398</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,16 +5088,16 @@
         <v>1359</v>
       </c>
       <c r="D43" s="7">
-        <v>1384430</v>
+        <v>1384429</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>1424</v>
@@ -5091,13 +5106,13 @@
         <v>1460208</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7">
         <v>2783</v>
@@ -5106,13 +5121,13 @@
         <v>2844638</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5142,13 @@
         <v>686702</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H44" s="7">
         <v>908</v>
@@ -5142,13 +5157,13 @@
         <v>941363</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M44" s="7">
         <v>1579</v>
@@ -5157,13 +5172,13 @@
         <v>1628064</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,7 +5190,7 @@
         <v>3213</v>
       </c>
       <c r="D45" s="7">
-        <v>3275710</v>
+        <v>3275709</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -5219,7 +5234,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5241,7 +5256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EDD8E2-89CE-4FD5-B964-59DDE8530CFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E010589D-994A-4AED-9F15-BEB8A6252B26}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5258,7 +5273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5365,13 +5380,13 @@
         <v>20952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5380,13 +5395,13 @@
         <v>12914</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -5395,13 +5410,13 @@
         <v>33866</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5431,13 @@
         <v>43913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5431,13 +5446,13 @@
         <v>27330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -5446,13 +5461,13 @@
         <v>71243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5482,13 @@
         <v>155998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H6" s="7">
         <v>112</v>
@@ -5482,13 +5497,13 @@
         <v>115231</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -5497,13 +5512,13 @@
         <v>271229</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5533,13 @@
         <v>136089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -5533,13 +5548,13 @@
         <v>143073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -5548,13 +5563,13 @@
         <v>279161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5584,13 @@
         <v>97194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -5584,13 +5599,13 @@
         <v>130741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -5599,13 +5614,13 @@
         <v>227935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5688,13 @@
         <v>10213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5688,13 +5703,13 @@
         <v>7960</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5703,13 +5718,13 @@
         <v>18174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5739,13 @@
         <v>34678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -5739,13 +5754,13 @@
         <v>20823</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -5754,13 +5769,13 @@
         <v>55501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5790,13 @@
         <v>181070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>175</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -5790,13 +5805,13 @@
         <v>121128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>292</v>
@@ -5805,13 +5820,13 @@
         <v>302197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5841,13 @@
         <v>249146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>185</v>
@@ -5844,10 +5859,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -5856,13 +5871,13 @@
         <v>446907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5892,13 @@
         <v>211980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5892,13 +5907,13 @@
         <v>262583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -5907,13 +5922,13 @@
         <v>474563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,7 +5984,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5981,13 +5996,13 @@
         <v>10710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5996,13 +6011,13 @@
         <v>6764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -6011,13 +6026,13 @@
         <v>17474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6047,13 @@
         <v>23074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6047,13 +6062,13 @@
         <v>22219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6062,13 +6077,13 @@
         <v>45293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6098,13 @@
         <v>146481</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -6098,13 +6113,13 @@
         <v>106953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>240</v>
@@ -6113,13 +6128,13 @@
         <v>253435</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6149,13 @@
         <v>251435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
@@ -6149,13 +6164,13 @@
         <v>234289</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>462</v>
@@ -6164,13 +6179,13 @@
         <v>485724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6200,13 @@
         <v>249133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -6200,13 +6215,13 @@
         <v>339641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>555</v>
@@ -6215,13 +6230,13 @@
         <v>588774</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6304,13 @@
         <v>5463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6304,13 +6319,13 @@
         <v>2092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -6319,13 +6334,13 @@
         <v>7555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6355,13 @@
         <v>17874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6355,13 +6370,13 @@
         <v>8437</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>456</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -6370,13 +6385,13 @@
         <v>26310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6406,13 @@
         <v>144742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -6406,13 +6421,13 @@
         <v>93009</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M24" s="7">
         <v>211</v>
@@ -6421,13 +6436,13 @@
         <v>237751</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6457,13 @@
         <v>218633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>469</v>
+        <v>42</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H25" s="7">
         <v>169</v>
@@ -6457,13 +6472,13 @@
         <v>196374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M25" s="7">
         <v>363</v>
@@ -6472,13 +6487,13 @@
         <v>415007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6508,13 @@
         <v>225865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>49</v>
+        <v>483</v>
       </c>
       <c r="H26" s="7">
         <v>276</v>
@@ -6508,13 +6523,13 @@
         <v>312141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M26" s="7">
         <v>478</v>
@@ -6523,13 +6538,13 @@
         <v>538006</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,7 +6600,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6597,13 +6612,13 @@
         <v>4205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6612,13 +6627,13 @@
         <v>2244</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>491</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>286</v>
+        <v>492</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6627,13 +6642,13 @@
         <v>6449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>488</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>247</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6663,13 @@
         <v>12667</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6663,13 +6678,13 @@
         <v>9454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>493</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6678,13 +6693,13 @@
         <v>22121</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6714,13 @@
         <v>80818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H30" s="7">
         <v>62</v>
@@ -6714,13 +6729,13 @@
         <v>67095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M30" s="7">
         <v>135</v>
@@ -6729,13 +6744,13 @@
         <v>147914</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6765,13 @@
         <v>146558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H31" s="7">
         <v>143</v>
@@ -6765,13 +6780,13 @@
         <v>158323</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>279</v>
+        <v>512</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M31" s="7">
         <v>276</v>
@@ -6780,13 +6795,13 @@
         <v>304881</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6816,13 @@
         <v>185180</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H32" s="7">
         <v>191</v>
@@ -6816,13 +6831,13 @@
         <v>208849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>402</v>
+        <v>521</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>362</v>
@@ -6831,13 +6846,13 @@
         <v>394030</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>519</v>
+        <v>310</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>520</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,7 +6908,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6905,13 +6920,13 @@
         <v>4062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>525</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6920,13 +6935,13 @@
         <v>4476</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -6935,13 +6950,13 @@
         <v>8539</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>454</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6971,13 @@
         <v>16518</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>68</v>
+        <v>533</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -6971,13 +6986,13 @@
         <v>15694</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>493</v>
+        <v>204</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>529</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -6986,13 +7001,13 @@
         <v>32212</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>369</v>
+        <v>536</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>531</v>
+        <v>329</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>532</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +7022,13 @@
         <v>72840</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H36" s="7">
         <v>77</v>
@@ -7022,13 +7037,13 @@
         <v>81616</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M36" s="7">
         <v>142</v>
@@ -7037,13 +7052,13 @@
         <v>154456</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,13 +7073,13 @@
         <v>203121</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>171</v>
+        <v>547</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -7073,13 +7088,13 @@
         <v>255424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M37" s="7">
         <v>417</v>
@@ -7088,13 +7103,13 @@
         <v>458544</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,13 +7124,13 @@
         <v>258957</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H38" s="7">
         <v>358</v>
@@ -7124,13 +7139,13 @@
         <v>383838</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="M38" s="7">
         <v>596</v>
@@ -7139,13 +7154,13 @@
         <v>642794</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7228,13 @@
         <v>55607</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>411</v>
+        <v>565</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H40" s="7">
         <v>35</v>
@@ -7228,13 +7243,13 @@
         <v>36451</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>455</v>
+        <v>569</v>
       </c>
       <c r="M40" s="7">
         <v>90</v>
@@ -7243,13 +7258,13 @@
         <v>92058</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>452</v>
+        <v>570</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>564</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7279,13 @@
         <v>148724</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H41" s="7">
         <v>97</v>
@@ -7279,13 +7294,13 @@
         <v>103957</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="M41" s="7">
         <v>240</v>
@@ -7294,13 +7309,13 @@
         <v>252680</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7330,13 @@
         <v>781950</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>176</v>
+        <v>581</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="H42" s="7">
         <v>545</v>
@@ -7330,13 +7345,13 @@
         <v>585032</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>575</v>
+        <v>105</v>
       </c>
       <c r="M42" s="7">
         <v>1287</v>
@@ -7345,13 +7360,13 @@
         <v>1366982</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,13 +7381,13 @@
         <v>1204983</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="H43" s="7">
         <v>1101</v>
@@ -7381,13 +7396,13 @@
         <v>1185243</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="M43" s="7">
         <v>2211</v>
@@ -7396,13 +7411,13 @@
         <v>2390226</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>586</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>279</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7432,13 @@
         <v>1228309</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="H44" s="7">
         <v>1513</v>
@@ -7432,13 +7447,13 @@
         <v>1637794</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="M44" s="7">
         <v>2665</v>
@@ -7447,13 +7462,13 @@
         <v>2866102</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>444</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,7 +7524,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -7531,7 +7546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E970D-F6A2-46F5-9640-64F5167E4653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7244F0-7FBA-4B6A-9592-4CBAD8DAFAD0}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7548,7 +7563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7655,13 +7670,13 @@
         <v>9462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>605</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -7670,13 +7685,13 @@
         <v>17167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -7685,13 +7700,13 @@
         <v>26629</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>611</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7721,13 @@
         <v>23116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>613</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>603</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -7721,13 +7736,13 @@
         <v>20472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -7736,13 +7751,13 @@
         <v>43589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7772,13 @@
         <v>127098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -7772,13 +7787,13 @@
         <v>107732</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="M6" s="7">
         <v>230</v>
@@ -7787,13 +7802,13 @@
         <v>234830</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7823,13 @@
         <v>172985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -7823,13 +7838,13 @@
         <v>153736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="M7" s="7">
         <v>321</v>
@@ -7838,13 +7853,13 @@
         <v>326721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7874,13 @@
         <v>83599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>628</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -7874,13 +7889,13 @@
         <v>94716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>641</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -7889,13 +7904,13 @@
         <v>178315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7978,13 @@
         <v>12916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7978,13 +7993,13 @@
         <v>7794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>637</v>
+        <v>462</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>647</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -7993,13 +8008,13 @@
         <v>20710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>639</v>
+        <v>533</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8029,13 @@
         <v>33416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -8029,13 +8044,13 @@
         <v>15466</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>646</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>647</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -8044,13 +8059,13 @@
         <v>48882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>649</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8080,13 @@
         <v>139441</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="H12" s="7">
         <v>136</v>
@@ -8080,13 +8095,13 @@
         <v>131024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="M12" s="7">
         <v>270</v>
@@ -8095,13 +8110,13 @@
         <v>270465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>655</v>
+        <v>145</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>129</v>
+        <v>661</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8131,13 @@
         <v>253215</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -8131,13 +8146,13 @@
         <v>237058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>659</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="M13" s="7">
         <v>489</v>
@@ -8146,13 +8161,13 @@
         <v>490274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,13 +8182,13 @@
         <v>149475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -8182,13 +8197,13 @@
         <v>168380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>668</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -8197,13 +8212,13 @@
         <v>317855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,7 +8274,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8271,13 +8286,13 @@
         <v>1976</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>673</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -8286,13 +8301,13 @@
         <v>6573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>675</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -8301,13 +8316,13 @@
         <v>8549</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8337,13 @@
         <v>33165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>677</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -8337,13 +8352,13 @@
         <v>12780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>679</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>683</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>680</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -8352,13 +8367,13 @@
         <v>45946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>603</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>684</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8388,13 @@
         <v>158271</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>682</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -8388,13 +8403,13 @@
         <v>125809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -8403,13 +8418,13 @@
         <v>284080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,13 +8439,13 @@
         <v>296970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>694</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -8439,13 +8454,13 @@
         <v>272708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>690</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>696</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -8454,13 +8469,13 @@
         <v>569678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,13 +8490,13 @@
         <v>177771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -8490,13 +8505,13 @@
         <v>241524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>697</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="M20" s="7">
         <v>405</v>
@@ -8505,13 +8520,13 @@
         <v>419294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8579,13 +8594,13 @@
         <v>6107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>679</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8594,13 +8609,13 @@
         <v>5310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>708</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>704</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -8609,13 +8624,13 @@
         <v>11417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,13 +8645,13 @@
         <v>27181</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>706</v>
+        <v>450</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -8645,13 +8660,13 @@
         <v>10209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>715</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -8660,13 +8675,13 @@
         <v>37390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>711</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,13 +8696,13 @@
         <v>151359</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H24" s="7">
         <v>103</v>
@@ -8696,13 +8711,13 @@
         <v>111421</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -8711,13 +8726,13 @@
         <v>262781</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>429</v>
+        <v>722</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,13 +8747,13 @@
         <v>270667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>721</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>263</v>
@@ -8747,13 +8762,13 @@
         <v>283877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -8762,13 +8777,13 @@
         <v>554545</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,13 +8798,13 @@
         <v>183699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -8798,13 +8813,13 @@
         <v>236058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>731</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -8813,13 +8828,13 @@
         <v>419758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,7 +8890,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8887,13 +8902,13 @@
         <v>1108</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -8902,13 +8917,13 @@
         <v>3324</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>740</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8917,13 +8932,13 @@
         <v>4432</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>743</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,7 +8956,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>745</v>
@@ -8956,10 +8971,10 @@
         <v>746</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>566</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>19</v>
+        <v>747</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -8968,7 +8983,7 @@
         <v>27462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>747</v>
+        <v>647</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>748</v>
@@ -9058,10 +9073,10 @@
         <v>762</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>404</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>763</v>
+        <v>600</v>
       </c>
       <c r="M31" s="7">
         <v>384</v>
@@ -9070,10 +9085,10 @@
         <v>432915</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>765</v>
@@ -9091,10 +9106,10 @@
         <v>151842</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>767</v>
@@ -9183,7 +9198,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9195,13 +9210,13 @@
         <v>6832</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>635</v>
+        <v>774</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>705</v>
+        <v>646</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9210,13 +9225,13 @@
         <v>3230</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9225,13 +9240,13 @@
         <v>10062</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>488</v>
+        <v>154</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>777</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9252,7 +9267,7 @@
         <v>779</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>780</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -9261,13 +9276,13 @@
         <v>14455</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>486</v>
+        <v>567</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>123</v>
+        <v>781</v>
       </c>
       <c r="M35" s="7">
         <v>26</v>
@@ -9276,13 +9291,13 @@
         <v>27816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>452</v>
+        <v>783</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,13 +9312,13 @@
         <v>87188</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="H36" s="7">
         <v>103</v>
@@ -9312,13 +9327,13 @@
         <v>122612</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="M36" s="7">
         <v>194</v>
@@ -9327,13 +9342,13 @@
         <v>209800</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9363,13 @@
         <v>294071</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H37" s="7">
         <v>269</v>
@@ -9363,13 +9378,13 @@
         <v>320648</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>727</v>
+        <v>798</v>
       </c>
       <c r="M37" s="7">
         <v>580</v>
@@ -9378,13 +9393,13 @@
         <v>614719</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>307</v>
+        <v>799</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,13 +9414,13 @@
         <v>188952</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>45</v>
+        <v>802</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>179</v>
+        <v>804</v>
       </c>
       <c r="H38" s="7">
         <v>265</v>
@@ -9414,13 +9429,13 @@
         <v>313564</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>798</v>
+        <v>306</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>800</v>
+        <v>693</v>
       </c>
       <c r="M38" s="7">
         <v>468</v>
@@ -9429,13 +9444,13 @@
         <v>502516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,13 +9518,13 @@
         <v>38401</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>640</v>
+        <v>808</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -9518,10 +9533,10 @@
         <v>43398</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>153</v>
@@ -9533,13 +9548,13 @@
         <v>81799</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>805</v>
+        <v>645</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>744</v>
+        <v>812</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>806</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9569,13 @@
         <v>139981</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>808</v>
+        <v>70</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="H41" s="7">
         <v>86</v>
@@ -9569,13 +9584,13 @@
         <v>91104</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>412</v>
+        <v>65</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>811</v>
+        <v>168</v>
       </c>
       <c r="M41" s="7">
         <v>216</v>
@@ -9587,10 +9602,10 @@
         <v>164</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>812</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9605,13 +9620,13 @@
         <v>757181</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="H42" s="7">
         <v>638</v>
@@ -9620,13 +9635,13 @@
         <v>662488</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="M42" s="7">
         <v>1352</v>
@@ -9635,13 +9650,13 @@
         <v>1419669</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>818</v>
+        <v>656</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9656,13 +9671,13 @@
         <v>1506272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H43" s="7">
         <v>1400</v>
@@ -9671,13 +9686,13 @@
         <v>1482581</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>825</v>
+        <v>514</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M43" s="7">
         <v>2847</v>
@@ -9686,13 +9701,13 @@
         <v>2988853</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,13 +9722,13 @@
         <v>935337</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>346</v>
+        <v>831</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>315</v>
+        <v>832</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>316</v>
+        <v>833</v>
       </c>
       <c r="H44" s="7">
         <v>1157</v>
@@ -9722,13 +9737,13 @@
         <v>1248213</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>831</v>
+        <v>589</v>
       </c>
       <c r="M44" s="7">
         <v>2044</v>
@@ -9737,13 +9752,13 @@
         <v>2183550</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>277</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9799,7 +9814,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C80A09-641C-4366-AABF-36033A2AD54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB1DF8F-DAC3-44B8-BFB7-874D9695B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEFB0299-4431-4727-B5F2-BEC68AC0D5BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45ED41EA-1996-40FA-B853-650CD82E1CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="833">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,2482 +76,2464 @@
     <t>4,58%</t>
   </si>
   <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>23,82%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>43,77%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,33%</t>
+    <t>30,52%</t>
   </si>
   <si>
     <t>32,76%</t>
@@ -2966,7 +2948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF3E455-B184-44B5-BADC-ADE5CB22C40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D3A065-3FF5-4700-8B7B-41FECA0A8B18}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3434,7 +3416,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3431,13 @@
         <v>64605</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -3464,13 +3446,13 @@
         <v>31325</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -3479,13 +3461,13 @@
         <v>95930</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3482,13 @@
         <v>193536</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>145</v>
@@ -3515,13 +3497,13 @@
         <v>149270</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>336</v>
@@ -3530,13 +3512,13 @@
         <v>342806</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3533,13 @@
         <v>336329</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -3566,13 +3548,13 @@
         <v>278799</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3581,13 +3563,13 @@
         <v>615128</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3584,13 @@
         <v>119376</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3617,13 +3599,13 @@
         <v>153261</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -3632,13 +3614,13 @@
         <v>272637</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,7 +3676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3706,13 +3688,13 @@
         <v>11569</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3721,13 +3703,13 @@
         <v>3952</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3736,13 +3718,13 @@
         <v>15521</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3739,13 @@
         <v>40098</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3772,13 +3754,13 @@
         <v>17552</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -3787,13 +3769,13 @@
         <v>57650</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3790,13 @@
         <v>195014</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>165</v>
@@ -3823,13 +3805,13 @@
         <v>169799</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>349</v>
@@ -3838,13 +3820,13 @@
         <v>364813</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3841,13 @@
         <v>264838</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>306</v>
@@ -3874,13 +3856,13 @@
         <v>320247</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>561</v>
@@ -3889,13 +3871,13 @@
         <v>585086</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3892,13 @@
         <v>127148</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -3925,13 +3907,13 @@
         <v>178194</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>290</v>
@@ -3940,13 +3922,13 @@
         <v>305342</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,7 +3984,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4014,13 +3996,13 @@
         <v>8566</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4029,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -4044,13 +4026,13 @@
         <v>8566</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4062,13 @@
         <v>17261</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -4095,13 +4077,13 @@
         <v>45470</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4098,13 @@
         <v>148006</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>99</v>
@@ -4131,13 +4113,13 @@
         <v>100512</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>234</v>
@@ -4146,13 +4128,13 @@
         <v>248518</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4149,13 @@
         <v>208884</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>220</v>
@@ -4182,13 +4164,13 @@
         <v>224531</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -4197,13 +4179,13 @@
         <v>433415</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4200,13 @@
         <v>125482</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -4233,13 +4215,13 @@
         <v>173338</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -4248,13 +4230,13 @@
         <v>298820</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4292,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4322,13 +4304,13 @@
         <v>6666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4337,13 +4319,13 @@
         <v>2259</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -4352,13 +4334,13 @@
         <v>8925</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4355,13 @@
         <v>14030</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4388,13 +4370,13 @@
         <v>12322</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -4403,13 +4385,13 @@
         <v>26351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4406,13 @@
         <v>93445</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>87</v>
@@ -4439,13 +4421,13 @@
         <v>88657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>181</v>
@@ -4454,13 +4436,13 @@
         <v>182102</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4457,13 @@
         <v>159567</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>172</v>
@@ -4490,13 +4472,13 @@
         <v>176342</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>336</v>
@@ -4505,13 +4487,13 @@
         <v>335909</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4508,13 @@
         <v>112168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -4541,13 +4523,13 @@
         <v>124406</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>234</v>
@@ -4556,13 +4538,13 @@
         <v>236574</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,7 +4600,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4630,13 +4612,13 @@
         <v>1804</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -4645,13 +4627,13 @@
         <v>5192</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -4660,13 +4642,13 @@
         <v>6996</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4663,13 @@
         <v>13263</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -4696,13 +4678,13 @@
         <v>19584</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -4711,13 +4693,13 @@
         <v>32847</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4714,13 @@
         <v>116950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -4747,13 +4729,13 @@
         <v>125893</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>242</v>
@@ -4762,13 +4744,13 @@
         <v>242844</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4765,13 @@
         <v>218294</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -4798,13 +4780,13 @@
         <v>291742</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>514</v>
@@ -4813,13 +4795,13 @@
         <v>510036</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4816,13 @@
         <v>152154</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>230</v>
@@ -4849,13 +4831,13 @@
         <v>234432</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>387</v>
@@ -4864,13 +4846,13 @@
         <v>386586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4920,13 @@
         <v>72877</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -4953,13 +4935,13 @@
         <v>41576</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>115</v>
@@ -4968,13 +4950,13 @@
         <v>114452</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4971,13 @@
         <v>227737</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H41" s="7">
         <v>143</v>
@@ -5004,10 +4986,10 @@
         <v>146558</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>292</v>
@@ -5256,7 +5238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E010589D-994A-4AED-9F15-BEB8A6252B26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FF26E-BA77-4070-885C-0D68826686AD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5434,10 +5416,10 @@
         <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5446,13 +5428,13 @@
         <v>27330</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -5461,13 +5443,13 @@
         <v>71243</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5464,13 @@
         <v>155998</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H6" s="7">
         <v>112</v>
@@ -5497,13 +5479,13 @@
         <v>115231</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -5512,13 +5494,13 @@
         <v>271229</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5515,13 @@
         <v>136089</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -5548,13 +5530,13 @@
         <v>143073</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -5563,13 +5545,13 @@
         <v>279161</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5566,13 @@
         <v>97194</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -5599,13 +5581,13 @@
         <v>130741</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -5614,13 +5596,13 @@
         <v>227935</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5670,13 @@
         <v>10213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5703,13 +5685,13 @@
         <v>7960</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5718,13 +5700,13 @@
         <v>18174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5721,13 @@
         <v>34678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -5754,13 +5736,13 @@
         <v>20823</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -5769,13 +5751,13 @@
         <v>55501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5772,13 @@
         <v>181070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -5805,13 +5787,13 @@
         <v>121128</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>292</v>
@@ -5820,13 +5802,13 @@
         <v>302197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5823,13 @@
         <v>249146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>185</v>
@@ -5859,10 +5841,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -5871,13 +5853,13 @@
         <v>446907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5874,13 @@
         <v>211980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5907,13 +5889,13 @@
         <v>262583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -5922,13 +5904,13 @@
         <v>474563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,7 +5966,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5996,13 +5978,13 @@
         <v>10710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6011,13 +5993,13 @@
         <v>6764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -6026,13 +6008,13 @@
         <v>17474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6029,13 @@
         <v>23074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6062,13 +6044,13 @@
         <v>22219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6077,13 +6059,13 @@
         <v>45293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6080,13 @@
         <v>146481</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -6113,13 +6095,13 @@
         <v>106953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>240</v>
@@ -6128,13 +6110,13 @@
         <v>253435</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6131,13 @@
         <v>251435</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
@@ -6164,13 +6146,13 @@
         <v>234289</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>462</v>
@@ -6179,13 +6161,13 @@
         <v>485724</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6182,13 @@
         <v>249133</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -6215,13 +6197,13 @@
         <v>339641</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>555</v>
@@ -6230,13 +6212,13 @@
         <v>588774</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,7 +6274,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6304,7 +6286,7 @@
         <v>5463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>449</v>
@@ -6322,7 +6304,7 @@
         <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>452</v>
@@ -6337,10 +6319,10 @@
         <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6337,13 @@
         <v>17874</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6370,13 +6352,13 @@
         <v>8437</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -6385,13 +6367,13 @@
         <v>26310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>461</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6388,13 @@
         <v>144742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -6421,13 +6403,13 @@
         <v>93009</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>211</v>
@@ -6436,13 +6418,13 @@
         <v>237751</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6439,13 @@
         <v>218633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>470</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H25" s="7">
         <v>169</v>
@@ -6472,13 +6454,13 @@
         <v>196374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>477</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>363</v>
@@ -6487,13 +6469,13 @@
         <v>415007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6490,13 @@
         <v>225865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H26" s="7">
         <v>276</v>
@@ -6523,13 +6505,13 @@
         <v>312141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M26" s="7">
         <v>478</v>
@@ -6538,13 +6520,13 @@
         <v>538006</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,7 +6582,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6612,13 +6594,13 @@
         <v>4205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>490</v>
+        <v>243</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6627,13 +6609,13 @@
         <v>2244</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6642,13 +6624,13 @@
         <v>6449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +6645,13 @@
         <v>12667</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>495</v>
+        <v>367</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>496</v>
+        <v>73</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6678,13 +6660,13 @@
         <v>9454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6696,10 +6678,10 @@
         <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6696,13 @@
         <v>80818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H30" s="7">
         <v>62</v>
@@ -6729,13 +6711,13 @@
         <v>67095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M30" s="7">
         <v>135</v>
@@ -6744,13 +6726,13 @@
         <v>147914</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6747,13 @@
         <v>146558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H31" s="7">
         <v>143</v>
@@ -6780,13 +6762,13 @@
         <v>158323</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M31" s="7">
         <v>276</v>
@@ -6795,13 +6777,13 @@
         <v>304881</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6798,13 @@
         <v>185180</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H32" s="7">
         <v>191</v>
@@ -6831,13 +6813,13 @@
         <v>208849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>522</v>
+        <v>312</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M32" s="7">
         <v>362</v>
@@ -6846,13 +6828,13 @@
         <v>394030</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>310</v>
+        <v>518</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>185</v>
+        <v>519</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,7 +6890,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6920,13 +6902,13 @@
         <v>4062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6935,13 +6917,13 @@
         <v>4476</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>528</v>
+        <v>369</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -6950,13 +6932,13 @@
         <v>8539</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6953,13 @@
         <v>16518</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -6986,13 +6968,13 @@
         <v>15694</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>411</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -7001,13 +6983,13 @@
         <v>32212</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>329</v>
+        <v>532</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7004,13 @@
         <v>72840</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>539</v>
+        <v>143</v>
       </c>
       <c r="H36" s="7">
         <v>77</v>
@@ -7037,13 +7019,13 @@
         <v>81616</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M36" s="7">
         <v>142</v>
@@ -7052,13 +7034,13 @@
         <v>154456</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7055,13 @@
         <v>203121</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>547</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>548</v>
+        <v>46</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -7088,13 +7070,13 @@
         <v>255424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>551</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>417</v>
@@ -7103,13 +7085,13 @@
         <v>458544</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7106,13 @@
         <v>258957</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H38" s="7">
         <v>358</v>
@@ -7139,13 +7121,13 @@
         <v>383838</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="M38" s="7">
         <v>596</v>
@@ -7154,13 +7136,13 @@
         <v>642794</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7210,13 @@
         <v>55607</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>565</v>
+        <v>282</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H40" s="7">
         <v>35</v>
@@ -7243,13 +7225,13 @@
         <v>36451</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>569</v>
+        <v>286</v>
       </c>
       <c r="M40" s="7">
         <v>90</v>
@@ -7258,13 +7240,13 @@
         <v>92058</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7261,13 @@
         <v>148724</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>573</v>
+        <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>330</v>
+        <v>562</v>
       </c>
       <c r="H41" s="7">
         <v>97</v>
@@ -7294,13 +7276,13 @@
         <v>103957</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>575</v>
+        <v>419</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="M41" s="7">
         <v>240</v>
@@ -7309,13 +7291,13 @@
         <v>252680</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>579</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7312,13 @@
         <v>781950</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>580</v>
+        <v>365</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>581</v>
+        <v>176</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="H42" s="7">
         <v>545</v>
@@ -7345,13 +7327,13 @@
         <v>585032</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>105</v>
+        <v>569</v>
       </c>
       <c r="M42" s="7">
         <v>1287</v>
@@ -7360,13 +7342,13 @@
         <v>1366982</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7363,13 @@
         <v>1204983</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H43" s="7">
         <v>1101</v>
@@ -7396,13 +7378,13 @@
         <v>1185243</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>591</v>
+        <v>511</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="M43" s="7">
         <v>2211</v>
@@ -7411,13 +7393,13 @@
         <v>2390226</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>34</v>
+        <v>579</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7414,13 @@
         <v>1228309</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="H44" s="7">
         <v>1513</v>
@@ -7447,13 +7429,13 @@
         <v>1637794</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>598</v>
+        <v>220</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="M44" s="7">
         <v>2665</v>
@@ -7462,13 +7444,13 @@
         <v>2866102</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,7 +7528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7244F0-7FBA-4B6A-9592-4CBAD8DAFAD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADA7574-61C6-4738-89BB-78CA85E09986}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7563,7 +7545,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7670,13 +7652,13 @@
         <v>9462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>607</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -7685,13 +7667,13 @@
         <v>17167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -7700,13 +7682,13 @@
         <v>26629</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>612</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7703,13 @@
         <v>23116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>564</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -7736,13 +7718,13 @@
         <v>20472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>615</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -7751,13 +7733,13 @@
         <v>43589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>619</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7754,13 @@
         <v>127098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -7787,13 +7769,13 @@
         <v>107732</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>321</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="M6" s="7">
         <v>230</v>
@@ -7802,13 +7784,13 @@
         <v>234830</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7805,13 @@
         <v>172985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -7838,13 +7820,13 @@
         <v>153736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>633</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>321</v>
@@ -7853,13 +7835,13 @@
         <v>326721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7856,13 @@
         <v>83599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>619</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>638</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -7889,13 +7871,13 @@
         <v>94716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>640</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -7904,13 +7886,13 @@
         <v>178315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>642</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +7960,13 @@
         <v>12916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>624</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>645</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>576</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7993,13 +7975,13 @@
         <v>7794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -8008,13 +7990,13 @@
         <v>20710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>649</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8011,13 @@
         <v>33416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -8044,13 +8026,13 @@
         <v>15466</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>592</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -8059,13 +8041,13 @@
         <v>48882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>634</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8062,13 @@
         <v>139441</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>656</v>
+        <v>187</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>657</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>136</v>
@@ -8095,13 +8077,13 @@
         <v>131024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="M12" s="7">
         <v>270</v>
@@ -8110,13 +8092,13 @@
         <v>270465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>145</v>
+        <v>640</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8113,13 @@
         <v>253215</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -8146,13 +8128,13 @@
         <v>237058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>646</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="M13" s="7">
         <v>489</v>
@@ -8161,13 +8143,13 @@
         <v>490274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8164,13 @@
         <v>149475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -8197,13 +8179,13 @@
         <v>168380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>655</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -8212,13 +8194,13 @@
         <v>317855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,7 +8256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8286,13 +8268,13 @@
         <v>1976</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>678</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>660</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -8301,13 +8283,13 @@
         <v>6573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>679</v>
+        <v>591</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>661</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>556</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -8316,13 +8298,13 @@
         <v>8549</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>662</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8319,13 @@
         <v>33165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -8352,13 +8334,13 @@
         <v>12780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>578</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -8367,13 +8349,13 @@
         <v>45946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>668</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8370,13 @@
         <v>158271</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>263</v>
+        <v>672</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -8403,13 +8385,13 @@
         <v>125809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -8418,13 +8400,13 @@
         <v>284080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,13 +8421,13 @@
         <v>296970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>520</v>
+        <v>681</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -8454,13 +8436,13 @@
         <v>272708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>49</v>
+        <v>682</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -8469,13 +8451,13 @@
         <v>569678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8472,13 @@
         <v>177771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -8505,13 +8487,13 @@
         <v>241524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>692</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="M20" s="7">
         <v>405</v>
@@ -8520,13 +8502,13 @@
         <v>419294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,7 +8564,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8594,13 +8576,13 @@
         <v>6107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8609,13 +8591,13 @@
         <v>5310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>709</v>
+        <v>661</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>533</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -8624,13 +8606,13 @@
         <v>11417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8645,13 +8627,13 @@
         <v>27181</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>450</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -8660,13 +8642,13 @@
         <v>10209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>715</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -8678,10 +8660,10 @@
         <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>716</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,13 +8678,13 @@
         <v>151359</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="H24" s="7">
         <v>103</v>
@@ -8711,13 +8693,13 @@
         <v>111421</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -8726,13 +8708,13 @@
         <v>262781</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>724</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,13 +8729,13 @@
         <v>270667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>715</v>
       </c>
       <c r="H25" s="7">
         <v>263</v>
@@ -8762,13 +8744,13 @@
         <v>283877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -8777,13 +8759,13 @@
         <v>554545</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +8780,13 @@
         <v>183699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -8813,13 +8795,13 @@
         <v>236058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>725</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>735</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>736</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -8828,13 +8810,13 @@
         <v>419758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>738</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,7 +8872,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8902,13 +8884,13 @@
         <v>1108</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -8917,13 +8899,13 @@
         <v>3324</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>741</v>
+        <v>114</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>730</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8932,13 +8914,13 @@
         <v>4432</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>567</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,10 +8938,10 @@
         <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>707</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>745</v>
+        <v>564</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -8968,13 +8950,13 @@
         <v>17721</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -8983,13 +8965,13 @@
         <v>27462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>647</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +8986,13 @@
         <v>93823</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -9019,13 +9001,13 @@
         <v>63891</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="M30" s="7">
         <v>140</v>
@@ -9034,13 +9016,13 @@
         <v>157713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,13 +9037,13 @@
         <v>218363</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="H31" s="7">
         <v>188</v>
@@ -9070,13 +9052,13 @@
         <v>214553</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>404</v>
+        <v>751</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>600</v>
+        <v>752</v>
       </c>
       <c r="M31" s="7">
         <v>384</v>
@@ -9085,13 +9067,13 @@
         <v>432915</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,13 +9088,13 @@
         <v>151842</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>756</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="H32" s="7">
         <v>168</v>
@@ -9121,13 +9103,13 @@
         <v>193971</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="M32" s="7">
         <v>301</v>
@@ -9136,13 +9118,13 @@
         <v>345813</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,7 +9180,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9210,13 +9192,13 @@
         <v>6832</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>646</v>
+        <v>731</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9225,13 +9207,13 @@
         <v>3230</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>769</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -9240,13 +9222,13 @@
         <v>10062</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>680</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9261,13 +9243,13 @@
         <v>13361</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -9276,13 +9258,13 @@
         <v>14455</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>781</v>
+        <v>566</v>
       </c>
       <c r="M35" s="7">
         <v>26</v>
@@ -9291,13 +9273,13 @@
         <v>27816</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>782</v>
+        <v>412</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>784</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9312,13 +9294,13 @@
         <v>87188</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="H36" s="7">
         <v>103</v>
@@ -9327,13 +9309,13 @@
         <v>122612</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="M36" s="7">
         <v>194</v>
@@ -9342,13 +9324,13 @@
         <v>209800</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9363,13 +9345,13 @@
         <v>294071</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="H37" s="7">
         <v>269</v>
@@ -9378,13 +9360,13 @@
         <v>320648</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="M37" s="7">
         <v>580</v>
@@ -9393,13 +9375,13 @@
         <v>614719</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>800</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9414,13 +9396,13 @@
         <v>188952</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="H38" s="7">
         <v>265</v>
@@ -9429,13 +9411,13 @@
         <v>313564</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>306</v>
+        <v>794</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>693</v>
+        <v>796</v>
       </c>
       <c r="M38" s="7">
         <v>468</v>
@@ -9444,13 +9426,13 @@
         <v>502516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9518,13 +9500,13 @@
         <v>38401</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>808</v>
+        <v>769</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>809</v>
+        <v>158</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -9533,13 +9515,13 @@
         <v>43398</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="M40" s="7">
         <v>79</v>
@@ -9548,13 +9530,13 @@
         <v>81799</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>645</v>
+        <v>802</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>812</v>
+        <v>492</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>455</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,13 +9551,13 @@
         <v>139981</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>813</v>
+        <v>705</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>70</v>
+        <v>803</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="H41" s="7">
         <v>86</v>
@@ -9584,13 +9566,13 @@
         <v>91104</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>65</v>
+        <v>806</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M41" s="7">
         <v>216</v>
@@ -9599,13 +9581,13 @@
         <v>231085</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>574</v>
+        <v>455</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>331</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,13 +9602,13 @@
         <v>757181</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>83</v>
+        <v>810</v>
       </c>
       <c r="H42" s="7">
         <v>638</v>
@@ -9635,13 +9617,13 @@
         <v>662488</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="M42" s="7">
         <v>1352</v>
@@ -9650,13 +9632,13 @@
         <v>1419669</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>656</v>
+        <v>572</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9671,13 +9653,13 @@
         <v>1506272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="H43" s="7">
         <v>1400</v>
@@ -9686,13 +9668,13 @@
         <v>1482581</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>514</v>
+        <v>820</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="M43" s="7">
         <v>2847</v>
@@ -9701,13 +9683,13 @@
         <v>2988853</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9722,13 +9704,13 @@
         <v>935337</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="H44" s="7">
         <v>1157</v>
@@ -9737,13 +9719,13 @@
         <v>1248213</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>834</v>
+        <v>727</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>589</v>
+        <v>829</v>
       </c>
       <c r="M44" s="7">
         <v>2044</v>
@@ -9752,13 +9734,13 @@
         <v>2183550</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB1DF8F-DAC3-44B8-BFB7-874D9695B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF090025-39E8-45C9-A45C-A4C154D19E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45ED41EA-1996-40FA-B853-650CD82E1CC9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C877B1DC-A7D5-49B6-AAE1-E1DCED4BFA2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="924">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,94%</t>
@@ -358,7 +358,7 @@
     <t>22,79%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -493,7 +493,7 @@
     <t>25,35%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,65%</t>
@@ -625,7 +625,7 @@
     <t>32,11%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -748,1705 +748,1978 @@
     <t>33,15%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,27%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
   </si>
   <si>
     <t>3,44%</t>
@@ -2948,8 +3221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D3A065-3FF5-4700-8B7B-41FECA0A8B18}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D1B82-057C-42E0-8A77-4D28785F1BC2}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4606,10 +4879,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>1804</v>
+        <v>769</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>237</v>
@@ -4621,10 +4894,10 @@
         <v>238</v>
       </c>
       <c r="H34" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>5192</v>
+        <v>4067</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>239</v>
@@ -4636,19 +4909,19 @@
         <v>241</v>
       </c>
       <c r="M34" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>6996</v>
+        <v>4836</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,10 +4930,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>13263</v>
+        <v>8580</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>244</v>
@@ -4672,10 +4945,10 @@
         <v>246</v>
       </c>
       <c r="H35" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I35" s="7">
-        <v>19584</v>
+        <v>9246</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>247</v>
@@ -4687,10 +4960,10 @@
         <v>249</v>
       </c>
       <c r="M35" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N35" s="7">
-        <v>32847</v>
+        <v>17826</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>250</v>
@@ -4708,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="D36" s="7">
-        <v>116950</v>
+        <v>70736</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>253</v>
@@ -4723,10 +4996,10 @@
         <v>255</v>
       </c>
       <c r="H36" s="7">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I36" s="7">
-        <v>125893</v>
+        <v>61726</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>256</v>
@@ -4738,10 +5011,10 @@
         <v>258</v>
       </c>
       <c r="M36" s="7">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="N36" s="7">
-        <v>242844</v>
+        <v>132463</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>259</v>
@@ -4759,10 +5032,10 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="D37" s="7">
-        <v>218294</v>
+        <v>129562</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>262</v>
@@ -4774,10 +5047,10 @@
         <v>264</v>
       </c>
       <c r="H37" s="7">
-        <v>287</v>
+        <v>159</v>
       </c>
       <c r="I37" s="7">
-        <v>291742</v>
+        <v>145622</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>265</v>
@@ -4789,10 +5062,10 @@
         <v>267</v>
       </c>
       <c r="M37" s="7">
-        <v>514</v>
+        <v>293</v>
       </c>
       <c r="N37" s="7">
-        <v>510036</v>
+        <v>275185</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>268</v>
@@ -4810,10 +5083,10 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="D38" s="7">
-        <v>152154</v>
+        <v>82935</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>271</v>
@@ -4825,10 +5098,10 @@
         <v>273</v>
       </c>
       <c r="H38" s="7">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="I38" s="7">
-        <v>234432</v>
+        <v>122272</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>274</v>
@@ -4840,10 +5113,10 @@
         <v>276</v>
       </c>
       <c r="M38" s="7">
-        <v>387</v>
+        <v>217</v>
       </c>
       <c r="N38" s="7">
-        <v>386586</v>
+        <v>205207</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>277</v>
@@ -4861,10 +5134,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D39" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4876,10 +5149,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I39" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -4891,10 +5164,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N39" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -4908,55 +5181,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>72877</v>
+        <v>1035</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>41576</v>
+        <v>1125</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>284</v>
       </c>
       <c r="M40" s="7">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="N40" s="7">
-        <v>114452</v>
+        <v>2159</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,28 +5238,28 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="D41" s="7">
-        <v>227737</v>
+        <v>4684</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7">
+        <v>9</v>
+      </c>
+      <c r="I41" s="7">
+        <v>10337</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="H41" s="7">
-        <v>143</v>
-      </c>
-      <c r="I41" s="7">
-        <v>146558</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>291</v>
@@ -4995,19 +5268,19 @@
         <v>292</v>
       </c>
       <c r="M41" s="7">
-        <v>367</v>
+        <v>14</v>
       </c>
       <c r="N41" s="7">
-        <v>374295</v>
+        <v>15021</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,49 +5289,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>885</v>
+        <v>48</v>
       </c>
       <c r="D42" s="7">
-        <v>903964</v>
+        <v>46214</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>54</v>
+      </c>
+      <c r="I42" s="7">
+        <v>64167</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H42" s="7">
-        <v>780</v>
-      </c>
-      <c r="I42" s="7">
-        <v>788433</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>102</v>
+      </c>
+      <c r="N42" s="7">
+        <v>110381</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M42" s="7">
-        <v>1665</v>
-      </c>
-      <c r="N42" s="7">
-        <v>1692398</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,49 +5340,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1359</v>
+        <v>93</v>
       </c>
       <c r="D43" s="7">
-        <v>1384429</v>
+        <v>88732</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>128</v>
+      </c>
+      <c r="I43" s="7">
+        <v>146119</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H43" s="7">
-        <v>1424</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1460208</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>221</v>
+      </c>
+      <c r="N43" s="7">
+        <v>234851</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="M43" s="7">
-        <v>2783</v>
-      </c>
-      <c r="N43" s="7">
-        <v>2844638</v>
-      </c>
-      <c r="O43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,49 +5391,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>671</v>
+        <v>72</v>
       </c>
       <c r="D44" s="7">
-        <v>686702</v>
+        <v>69219</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7">
+        <v>98</v>
+      </c>
+      <c r="I44" s="7">
+        <v>112160</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H44" s="7">
-        <v>908</v>
-      </c>
-      <c r="I44" s="7">
-        <v>941363</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>170</v>
+      </c>
+      <c r="N44" s="7">
+        <v>181379</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="M44" s="7">
-        <v>1579</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1628064</v>
-      </c>
-      <c r="O44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,63 +5442,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>510</v>
+      </c>
+      <c r="N45" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>74</v>
+      </c>
+      <c r="D46" s="7">
+        <v>72877</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H46" s="7">
+        <v>41</v>
+      </c>
+      <c r="I46" s="7">
+        <v>41576</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M46" s="7">
+        <v>115</v>
+      </c>
+      <c r="N46" s="7">
+        <v>114452</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>224</v>
+      </c>
+      <c r="D47" s="7">
+        <v>227737</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H47" s="7">
+        <v>143</v>
+      </c>
+      <c r="I47" s="7">
+        <v>146558</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" s="7">
+        <v>367</v>
+      </c>
+      <c r="N47" s="7">
+        <v>374295</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>885</v>
+      </c>
+      <c r="D48" s="7">
+        <v>903964</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H48" s="7">
+        <v>780</v>
+      </c>
+      <c r="I48" s="7">
+        <v>788433</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1665</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1692398</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1359</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1384429</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1424</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1460208</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2783</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2844638</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>671</v>
+      </c>
+      <c r="D50" s="7">
+        <v>686702</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H50" s="7">
+        <v>908</v>
+      </c>
+      <c r="I50" s="7">
+        <v>941362</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1579</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1628064</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3213</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3275709</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3296</v>
       </c>
-      <c r="I45" s="7">
-        <v>3378138</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3378137</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6509</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6653847</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>323</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5238,8 +5820,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282FF26E-BA77-4070-885C-0D68826686AD}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EB52B5-E579-4057-AC0C-3B2C9B0BF0CD}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5255,7 +5837,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5362,13 +5944,13 @@
         <v>20952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5377,13 +5959,13 @@
         <v>12914</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -5392,13 +5974,13 @@
         <v>33866</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5995,13 @@
         <v>43913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -5428,13 +6010,13 @@
         <v>27330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -5443,13 +6025,13 @@
         <v>71243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +6046,13 @@
         <v>155998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7">
         <v>112</v>
@@ -5479,13 +6061,13 @@
         <v>115231</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -5494,13 +6076,13 @@
         <v>271229</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +6097,13 @@
         <v>136089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -5530,13 +6112,13 @@
         <v>143073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -5545,13 +6127,13 @@
         <v>279161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +6148,13 @@
         <v>97194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -5581,13 +6163,13 @@
         <v>130741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -5596,13 +6178,13 @@
         <v>227935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +6252,13 @@
         <v>10213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5688,10 +6270,10 @@
         <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5700,13 +6282,13 @@
         <v>18174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +6303,13 @@
         <v>34678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -5736,13 +6318,13 @@
         <v>20823</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -5751,13 +6333,13 @@
         <v>55501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +6354,13 @@
         <v>181070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -5787,13 +6369,13 @@
         <v>121128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>292</v>
@@ -5802,13 +6384,13 @@
         <v>302197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +6405,13 @@
         <v>249146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>185</v>
@@ -5841,10 +6423,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -5853,13 +6435,13 @@
         <v>446907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +6456,13 @@
         <v>211980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5889,13 +6471,13 @@
         <v>262583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -5904,13 +6486,13 @@
         <v>474563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,10 +6563,10 @@
         <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5993,13 +6575,13 @@
         <v>6764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -6008,13 +6590,13 @@
         <v>17474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,10 +6611,10 @@
         <v>23074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>73</v>
@@ -6044,13 +6626,13 @@
         <v>22219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -6059,13 +6641,13 @@
         <v>45293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6662,13 @@
         <v>146481</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>98</v>
@@ -6095,13 +6677,13 @@
         <v>106953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>240</v>
@@ -6110,13 +6692,13 @@
         <v>253435</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6713,13 @@
         <v>251435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
@@ -6146,13 +6728,13 @@
         <v>234289</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>462</v>
@@ -6161,13 +6743,13 @@
         <v>485724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6764,13 @@
         <v>249133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -6197,13 +6779,13 @@
         <v>339641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>555</v>
@@ -6212,13 +6794,13 @@
         <v>588774</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,7 +6827,7 @@
         <v>666</v>
       </c>
       <c r="I21" s="7">
-        <v>709866</v>
+        <v>709867</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -6286,13 +6868,13 @@
         <v>5463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6301,13 +6883,13 @@
         <v>2092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -6316,13 +6898,13 @@
         <v>7555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6919,13 @@
         <v>17874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -6352,13 +6934,13 @@
         <v>8437</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>457</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -6370,10 +6952,10 @@
         <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,13 +6970,13 @@
         <v>144742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -6403,13 +6985,13 @@
         <v>93009</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="M24" s="7">
         <v>211</v>
@@ -6418,13 +7000,13 @@
         <v>237751</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +7021,13 @@
         <v>218633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="H25" s="7">
         <v>169</v>
@@ -6454,13 +7036,13 @@
         <v>196374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>363</v>
@@ -6469,13 +7051,13 @@
         <v>415007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +7072,13 @@
         <v>225865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>276</v>
@@ -6505,13 +7087,13 @@
         <v>312141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>478</v>
@@ -6520,13 +7102,13 @@
         <v>538006</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +7176,13 @@
         <v>4205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>493</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6609,13 +7191,13 @@
         <v>2244</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -6627,10 +7209,10 @@
         <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>490</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,10 +7227,10 @@
         <v>12667</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>73</v>
@@ -6660,13 +7242,13 @@
         <v>9454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6678,10 +7260,10 @@
         <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>490</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +7278,13 @@
         <v>80818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="H30" s="7">
         <v>62</v>
@@ -6711,13 +7293,13 @@
         <v>67095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="M30" s="7">
         <v>135</v>
@@ -6726,13 +7308,13 @@
         <v>147914</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +7329,13 @@
         <v>146558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="H31" s="7">
         <v>143</v>
@@ -6762,13 +7344,13 @@
         <v>158323</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="M31" s="7">
         <v>276</v>
@@ -6777,13 +7359,13 @@
         <v>304881</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,13 +7380,13 @@
         <v>185180</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="H32" s="7">
         <v>191</v>
@@ -6813,13 +7395,13 @@
         <v>208849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="M32" s="7">
         <v>362</v>
@@ -6828,13 +7410,13 @@
         <v>394030</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,49 +7478,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>4062</v>
+        <v>1863</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="H34" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>4476</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>524</v>
+        <v>156</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>525</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>8539</v>
+        <v>1863</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>458</v>
+        <v>562</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>526</v>
+        <v>155</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,49 +7529,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>16518</v>
+        <v>10926</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>529</v>
+        <v>331</v>
       </c>
       <c r="H35" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I35" s="7">
-        <v>15694</v>
+        <v>8948</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>410</v>
+        <v>68</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>411</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>530</v>
+        <v>117</v>
       </c>
       <c r="M35" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N35" s="7">
-        <v>32212</v>
+        <v>19875</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>531</v>
+        <v>369</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,49 +7580,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D36" s="7">
-        <v>72840</v>
+        <v>42290</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>143</v>
+        <v>569</v>
       </c>
       <c r="H36" s="7">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I36" s="7">
-        <v>81616</v>
+        <v>35434</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>535</v>
+        <v>382</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="M36" s="7">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="N36" s="7">
-        <v>154456</v>
+        <v>77724</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,49 +7631,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="D37" s="7">
-        <v>203121</v>
+        <v>109831</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>576</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>46</v>
+        <v>577</v>
       </c>
       <c r="H37" s="7">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="I37" s="7">
-        <v>255424</v>
+        <v>126058</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>580</v>
       </c>
       <c r="M37" s="7">
-        <v>417</v>
+        <v>221</v>
       </c>
       <c r="N37" s="7">
-        <v>458544</v>
+        <v>235888</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>544</v>
+        <v>279</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,49 +7682,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="D38" s="7">
-        <v>258957</v>
+        <v>141807</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="H38" s="7">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="I38" s="7">
-        <v>383838</v>
+        <v>183556</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="M38" s="7">
-        <v>596</v>
+        <v>306</v>
       </c>
       <c r="N38" s="7">
-        <v>642794</v>
+        <v>325363</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,10 +7733,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="D39" s="7">
-        <v>555499</v>
+        <v>306717</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7166,10 +7748,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I39" s="7">
-        <v>741048</v>
+        <v>353996</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7181,10 +7763,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1193</v>
+        <v>623</v>
       </c>
       <c r="N39" s="7">
-        <v>1296546</v>
+        <v>660713</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7198,55 +7780,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>55607</v>
+        <v>2199</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="H40" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I40" s="7">
-        <v>36451</v>
+        <v>4476</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>558</v>
+        <v>240</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>286</v>
+        <v>593</v>
       </c>
       <c r="M40" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="N40" s="7">
-        <v>92058</v>
+        <v>6676</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,49 +7837,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="D41" s="7">
-        <v>148724</v>
+        <v>5592</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>14</v>
+        <v>597</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="H41" s="7">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="I41" s="7">
-        <v>103957</v>
+        <v>6746</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>563</v>
+        <v>251</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>419</v>
+        <v>599</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="M41" s="7">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="N41" s="7">
-        <v>252680</v>
+        <v>12337</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>565</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,49 +7888,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>742</v>
+        <v>26</v>
       </c>
       <c r="D42" s="7">
-        <v>781950</v>
+        <v>30551</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>365</v>
+        <v>602</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>176</v>
+        <v>603</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>303</v>
+        <v>604</v>
       </c>
       <c r="H42" s="7">
-        <v>545</v>
+        <v>42</v>
       </c>
       <c r="I42" s="7">
-        <v>585032</v>
+        <v>46182</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="M42" s="7">
-        <v>1287</v>
+        <v>68</v>
       </c>
       <c r="N42" s="7">
-        <v>1366982</v>
+        <v>76733</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,49 +7939,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1110</v>
+        <v>81</v>
       </c>
       <c r="D43" s="7">
-        <v>1204983</v>
+        <v>93290</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>575</v>
+        <v>262</v>
       </c>
       <c r="H43" s="7">
-        <v>1101</v>
+        <v>115</v>
       </c>
       <c r="I43" s="7">
-        <v>1185243</v>
+        <v>129366</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>511</v>
+        <v>188</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="M43" s="7">
-        <v>2211</v>
+        <v>196</v>
       </c>
       <c r="N43" s="7">
-        <v>2390226</v>
+        <v>222656</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,49 +7990,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>1152</v>
+        <v>108</v>
       </c>
       <c r="D44" s="7">
-        <v>1228309</v>
+        <v>117150</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="H44" s="7">
-        <v>1513</v>
+        <v>182</v>
       </c>
       <c r="I44" s="7">
-        <v>1637794</v>
+        <v>200282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>220</v>
+        <v>620</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="M44" s="7">
-        <v>2665</v>
+        <v>290</v>
       </c>
       <c r="N44" s="7">
-        <v>2866102</v>
+        <v>317432</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,63 +8041,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>221</v>
+      </c>
+      <c r="D45" s="7">
+        <v>248782</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>349</v>
+      </c>
+      <c r="I45" s="7">
+        <v>387052</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>570</v>
+      </c>
+      <c r="N45" s="7">
+        <v>635834</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>55</v>
+      </c>
+      <c r="D46" s="7">
+        <v>55607</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="H46" s="7">
+        <v>35</v>
+      </c>
+      <c r="I46" s="7">
+        <v>36451</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" s="7">
+        <v>90</v>
+      </c>
+      <c r="N46" s="7">
+        <v>92058</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>143</v>
+      </c>
+      <c r="D47" s="7">
+        <v>148723</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H47" s="7">
+        <v>97</v>
+      </c>
+      <c r="I47" s="7">
+        <v>103957</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="M47" s="7">
+        <v>240</v>
+      </c>
+      <c r="N47" s="7">
+        <v>252680</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>742</v>
+      </c>
+      <c r="D48" s="7">
+        <v>781950</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H48" s="7">
+        <v>545</v>
+      </c>
+      <c r="I48" s="7">
+        <v>585032</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1287</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1366982</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1110</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1204982</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1101</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1185243</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2211</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2390226</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1152</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1228309</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1513</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1637794</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2665</v>
+      </c>
+      <c r="N50" s="7">
+        <v>2866103</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3202</v>
       </c>
-      <c r="D45" s="7">
-        <v>3419572</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3419571</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3291</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3548477</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6493</v>
       </c>
-      <c r="N45" s="7">
-        <v>6968048</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>323</v>
+      <c r="N51" s="7">
+        <v>6968049</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7528,8 +8419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADA7574-61C6-4738-89BB-78CA85E09986}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938E970D-7A68-469D-9AA5-9EA6448BD293}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7545,7 +8436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7652,10 +8543,10 @@
         <v>9462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
@@ -7667,13 +8558,13 @@
         <v>17167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -7682,13 +8573,13 @@
         <v>26629</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,13 +8594,13 @@
         <v>23116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -7718,13 +8609,13 @@
         <v>20472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -7733,13 +8624,13 @@
         <v>43589</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,10 +8648,10 @@
         <v>125</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -7769,13 +8660,13 @@
         <v>107732</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="M6" s="7">
         <v>230</v>
@@ -7784,13 +8675,13 @@
         <v>234830</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +8696,13 @@
         <v>172985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -7820,10 +8711,10 @@
         <v>153736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>614</v>
+        <v>683</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>43</v>
@@ -7835,13 +8726,13 @@
         <v>326721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,10 +8747,10 @@
         <v>83599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>618</v>
+        <v>687</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>100</v>
@@ -7871,13 +8762,13 @@
         <v>94716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>620</v>
+        <v>689</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>621</v>
+        <v>690</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -7886,13 +8777,13 @@
         <v>178315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>691</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,10 +8851,10 @@
         <v>12916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>121</v>
@@ -7975,13 +8866,13 @@
         <v>7794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>527</v>
+        <v>695</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -7990,13 +8881,13 @@
         <v>20710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +8902,13 @@
         <v>33416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -8026,13 +8917,13 @@
         <v>15466</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>632</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -8041,13 +8932,13 @@
         <v>48882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,7 +8953,7 @@
         <v>139441</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>187</v>
@@ -8077,13 +8968,13 @@
         <v>131024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="M12" s="7">
         <v>270</v>
@@ -8092,13 +8983,13 @@
         <v>270465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +9004,13 @@
         <v>253215</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>643</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -8128,13 +9019,13 @@
         <v>237058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>646</v>
+        <v>715</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>647</v>
+        <v>716</v>
       </c>
       <c r="M13" s="7">
         <v>489</v>
@@ -8143,13 +9034,13 @@
         <v>490274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>648</v>
+        <v>717</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>649</v>
+        <v>718</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>650</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +9055,13 @@
         <v>149475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>651</v>
+        <v>720</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>652</v>
+        <v>721</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>653</v>
+        <v>722</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -8179,13 +9070,13 @@
         <v>168380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>654</v>
+        <v>723</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>655</v>
+        <v>724</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>656</v>
+        <v>725</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -8194,13 +9085,13 @@
         <v>317855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>657</v>
+        <v>726</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>658</v>
+        <v>727</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +9159,13 @@
         <v>1976</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>729</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -8283,13 +9174,13 @@
         <v>6573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -8298,13 +9189,13 @@
         <v>8549</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>663</v>
+        <v>562</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>664</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +9210,13 @@
         <v>33165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>665</v>
+        <v>734</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>666</v>
+        <v>735</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -8334,10 +9225,10 @@
         <v>12780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>667</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>167</v>
@@ -8349,13 +9240,13 @@
         <v>45946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>668</v>
+        <v>736</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>669</v>
+        <v>737</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>670</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8370,13 +9261,13 @@
         <v>158271</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>672</v>
+        <v>739</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -8385,13 +9276,13 @@
         <v>125809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>674</v>
+        <v>741</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>675</v>
+        <v>742</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>676</v>
+        <v>743</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -8400,13 +9291,13 @@
         <v>284080</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>677</v>
+        <v>744</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>678</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,13 +9312,13 @@
         <v>296970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>679</v>
+        <v>746</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>680</v>
+        <v>747</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>681</v>
+        <v>748</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -8436,13 +9327,13 @@
         <v>272708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>682</v>
+        <v>749</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>683</v>
+        <v>750</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>684</v>
+        <v>751</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -8451,13 +9342,13 @@
         <v>569678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>685</v>
+        <v>752</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>686</v>
+        <v>753</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>687</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8472,13 +9363,13 @@
         <v>177771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>689</v>
+        <v>756</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>690</v>
+        <v>757</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -8487,13 +9378,13 @@
         <v>241524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>691</v>
+        <v>758</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>692</v>
+        <v>759</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>693</v>
+        <v>760</v>
       </c>
       <c r="M20" s="7">
         <v>405</v>
@@ -8502,13 +9393,13 @@
         <v>419294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>694</v>
+        <v>761</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>695</v>
+        <v>762</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>696</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8576,10 +9467,10 @@
         <v>6107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>697</v>
+        <v>764</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>197</v>
@@ -8591,10 +9482,10 @@
         <v>5310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>698</v>
+        <v>765</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>107</v>
@@ -8606,13 +9497,13 @@
         <v>11417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>699</v>
+        <v>766</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>700</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,13 +9518,13 @@
         <v>27181</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>701</v>
+        <v>767</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>702</v>
+        <v>768</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -8642,10 +9533,10 @@
         <v>10209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>703</v>
+        <v>769</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>704</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>62</v>
@@ -8657,13 +9548,13 @@
         <v>37390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>705</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8678,13 +9569,13 @@
         <v>151359</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>706</v>
+        <v>771</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>707</v>
+        <v>772</v>
       </c>
       <c r="H24" s="7">
         <v>103</v>
@@ -8693,13 +9584,13 @@
         <v>111421</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>708</v>
+        <v>773</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>709</v>
+        <v>774</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -8708,10 +9599,10 @@
         <v>262781</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>711</v>
+        <v>776</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>712</v>
+        <v>777</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>146</v>
@@ -8729,13 +9620,13 @@
         <v>270667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>713</v>
+        <v>778</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>714</v>
+        <v>779</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>715</v>
+        <v>780</v>
       </c>
       <c r="H25" s="7">
         <v>263</v>
@@ -8744,13 +9635,13 @@
         <v>283877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>716</v>
+        <v>781</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>717</v>
+        <v>782</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>718</v>
+        <v>783</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -8759,13 +9650,13 @@
         <v>554545</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>719</v>
+        <v>784</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>721</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8780,13 +9671,13 @@
         <v>183699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>722</v>
+        <v>787</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>723</v>
+        <v>788</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>724</v>
+        <v>789</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -8795,13 +9686,13 @@
         <v>236058</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>725</v>
+        <v>790</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -8810,13 +9701,13 @@
         <v>419758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>726</v>
+        <v>791</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>727</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,7 +9775,7 @@
         <v>1108</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>728</v>
+        <v>793</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>155</v>
@@ -8902,10 +9793,10 @@
         <v>114</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>729</v>
+        <v>794</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>730</v>
+        <v>795</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8914,13 +9805,13 @@
         <v>4432</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>731</v>
+        <v>796</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>732</v>
+        <v>797</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>733</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,7 +9832,7 @@
         <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -8950,13 +9841,13 @@
         <v>17721</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>734</v>
+        <v>799</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>735</v>
+        <v>800</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -8965,13 +9856,13 @@
         <v>27462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>736</v>
+        <v>801</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>737</v>
+        <v>802</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,13 +9877,13 @@
         <v>93823</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>738</v>
+        <v>803</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>739</v>
+        <v>804</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>740</v>
+        <v>805</v>
       </c>
       <c r="H30" s="7">
         <v>56</v>
@@ -9001,13 +9892,13 @@
         <v>63891</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>741</v>
+        <v>806</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>742</v>
+        <v>807</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="M30" s="7">
         <v>140</v>
@@ -9016,13 +9907,13 @@
         <v>157713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>745</v>
+        <v>810</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>746</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9037,13 +9928,13 @@
         <v>218363</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>747</v>
+        <v>812</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>748</v>
+        <v>580</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="H31" s="7">
         <v>188</v>
@@ -9052,13 +9943,13 @@
         <v>214553</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>750</v>
+        <v>814</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>751</v>
+        <v>815</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
       <c r="M31" s="7">
         <v>384</v>
@@ -9067,13 +9958,13 @@
         <v>432915</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>753</v>
+        <v>817</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>755</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9088,13 +9979,13 @@
         <v>151842</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>756</v>
+        <v>820</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>757</v>
+        <v>821</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>758</v>
+        <v>822</v>
       </c>
       <c r="H32" s="7">
         <v>168</v>
@@ -9103,13 +9994,13 @@
         <v>193971</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>760</v>
+        <v>824</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>761</v>
+        <v>825</v>
       </c>
       <c r="M32" s="7">
         <v>301</v>
@@ -9118,13 +10009,13 @@
         <v>345813</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>762</v>
+        <v>826</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>763</v>
+        <v>827</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>764</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,49 +10077,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>6832</v>
+        <v>2036</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>765</v>
+        <v>560</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>731</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>766</v>
+        <v>829</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>3230</v>
+        <v>2025</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>767</v>
+        <v>830</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>768</v>
+        <v>155</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>769</v>
+        <v>626</v>
       </c>
       <c r="M34" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>10062</v>
+        <v>4060</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>831</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,49 +10128,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>13361</v>
+        <v>5660</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>770</v>
+        <v>832</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>771</v>
+        <v>599</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>772</v>
+        <v>833</v>
       </c>
       <c r="H35" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>14455</v>
+        <v>3100</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>560</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>566</v>
+        <v>834</v>
       </c>
       <c r="M35" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N35" s="7">
-        <v>27816</v>
+        <v>8760</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>412</v>
+        <v>835</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>773</v>
+        <v>836</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>328</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,49 +10179,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D36" s="7">
-        <v>87188</v>
+        <v>56537</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>774</v>
+        <v>604</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>775</v>
+        <v>837</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>776</v>
+        <v>430</v>
       </c>
       <c r="H36" s="7">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="I36" s="7">
-        <v>122612</v>
+        <v>52899</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>777</v>
+        <v>838</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>778</v>
+        <v>839</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>779</v>
+        <v>840</v>
       </c>
       <c r="M36" s="7">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="N36" s="7">
-        <v>209800</v>
+        <v>109436</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>781</v>
+        <v>842</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>782</v>
+        <v>843</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,49 +10230,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="D37" s="7">
-        <v>294071</v>
+        <v>162011</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="H37" s="7">
+        <v>140</v>
+      </c>
+      <c r="I37" s="7">
+        <v>151183</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="M37" s="7">
+        <v>297</v>
+      </c>
+      <c r="N37" s="7">
+        <v>313194</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>783</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="H37" s="7">
-        <v>269</v>
-      </c>
-      <c r="I37" s="7">
-        <v>320648</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="M37" s="7">
-        <v>580</v>
-      </c>
-      <c r="N37" s="7">
-        <v>614719</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9390,49 +10281,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="D38" s="7">
-        <v>188952</v>
+        <v>107162</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>791</v>
+        <v>45</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>792</v>
+        <v>851</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>793</v>
+        <v>852</v>
       </c>
       <c r="H38" s="7">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="I38" s="7">
-        <v>313564</v>
+        <v>166480</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>794</v>
+        <v>853</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>795</v>
+        <v>854</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>796</v>
+        <v>855</v>
       </c>
       <c r="M38" s="7">
-        <v>468</v>
+        <v>261</v>
       </c>
       <c r="N38" s="7">
-        <v>502516</v>
+        <v>273642</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>797</v>
+        <v>222</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>798</v>
+        <v>856</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>799</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9441,10 +10332,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>626</v>
+        <v>324</v>
       </c>
       <c r="D39" s="7">
-        <v>590404</v>
+        <v>333406</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9456,10 +10347,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>652</v>
+        <v>352</v>
       </c>
       <c r="I39" s="7">
-        <v>774509</v>
+        <v>375687</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9471,10 +10362,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1278</v>
+        <v>676</v>
       </c>
       <c r="N39" s="7">
-        <v>1364913</v>
+        <v>709093</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9488,55 +10379,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D40" s="7">
-        <v>38401</v>
+        <v>4796</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>769</v>
+        <v>561</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>158</v>
+        <v>497</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="H40" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>43398</v>
+        <v>1205</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>729</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>801</v>
+        <v>155</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>241</v>
+        <v>858</v>
       </c>
       <c r="M40" s="7">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="N40" s="7">
-        <v>81799</v>
+        <v>6001</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>245</v>
+        <v>860</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,49 +10436,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D41" s="7">
-        <v>139981</v>
+        <v>7701</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>705</v>
+        <v>861</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>803</v>
+        <v>626</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>804</v>
+        <v>862</v>
       </c>
       <c r="H41" s="7">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I41" s="7">
-        <v>91104</v>
+        <v>11355</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>805</v>
+        <v>863</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>806</v>
+        <v>864</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>167</v>
+        <v>865</v>
       </c>
       <c r="M41" s="7">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="N41" s="7">
-        <v>231085</v>
+        <v>19056</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>123</v>
+        <v>367</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>455</v>
+        <v>866</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>807</v>
+        <v>867</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,49 +10487,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>714</v>
+        <v>36</v>
       </c>
       <c r="D42" s="7">
-        <v>757181</v>
+        <v>30651</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>808</v>
+        <v>605</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>809</v>
+        <v>868</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>810</v>
+        <v>869</v>
       </c>
       <c r="H42" s="7">
-        <v>638</v>
+        <v>52</v>
       </c>
       <c r="I42" s="7">
-        <v>662488</v>
+        <v>69713</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>811</v>
+        <v>870</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>812</v>
+        <v>871</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>813</v>
+        <v>872</v>
       </c>
       <c r="M42" s="7">
-        <v>1352</v>
+        <v>88</v>
       </c>
       <c r="N42" s="7">
-        <v>1419669</v>
+        <v>100363</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>572</v>
+        <v>873</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>814</v>
+        <v>874</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>815</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,49 +10538,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1447</v>
+        <v>154</v>
       </c>
       <c r="D43" s="7">
-        <v>1506272</v>
+        <v>132060</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>816</v>
+        <v>876</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>817</v>
+        <v>88</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>818</v>
+        <v>877</v>
       </c>
       <c r="H43" s="7">
-        <v>1400</v>
+        <v>129</v>
       </c>
       <c r="I43" s="7">
-        <v>1482581</v>
+        <v>169465</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>819</v>
+        <v>878</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>821</v>
+        <v>879</v>
       </c>
       <c r="M43" s="7">
-        <v>2847</v>
+        <v>283</v>
       </c>
       <c r="N43" s="7">
-        <v>2988853</v>
+        <v>301525</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>823</v>
+        <v>880</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9698,49 +10589,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
+        <v>98</v>
+      </c>
+      <c r="D44" s="7">
+        <v>81790</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="H44" s="7">
+        <v>109</v>
+      </c>
+      <c r="I44" s="7">
+        <v>147084</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="D44" s="7">
-        <v>935337</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="H44" s="7">
-        <v>1157</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1248213</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>829</v>
-      </c>
       <c r="M44" s="7">
-        <v>2044</v>
+        <v>207</v>
       </c>
       <c r="N44" s="7">
-        <v>2183550</v>
+        <v>228874</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>830</v>
+        <v>888</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>831</v>
+        <v>889</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>832</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9749,63 +10640,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>302</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>300</v>
+      </c>
+      <c r="I45" s="7">
+        <v>398822</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>602</v>
+      </c>
+      <c r="N45" s="7">
+        <v>655820</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>38</v>
+      </c>
+      <c r="D46" s="7">
+        <v>38401</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="H46" s="7">
+        <v>41</v>
+      </c>
+      <c r="I46" s="7">
+        <v>43398</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="M46" s="7">
+        <v>79</v>
+      </c>
+      <c r="N46" s="7">
+        <v>81799</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>130</v>
+      </c>
+      <c r="D47" s="7">
+        <v>139981</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="H47" s="7">
+        <v>86</v>
+      </c>
+      <c r="I47" s="7">
+        <v>91104</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M47" s="7">
+        <v>216</v>
+      </c>
+      <c r="N47" s="7">
+        <v>231085</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>714</v>
+      </c>
+      <c r="D48" s="7">
+        <v>757181</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="H48" s="7">
+        <v>638</v>
+      </c>
+      <c r="I48" s="7">
+        <v>662488</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1352</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1419669</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1447</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1506272</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1482581</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2847</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2988853</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>887</v>
+      </c>
+      <c r="D50" s="7">
+        <v>935337</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1157</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1248213</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N50" s="7">
+        <v>2183550</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3216</v>
       </c>
-      <c r="D45" s="7">
-        <v>3377172</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3377171</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3322</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3527784</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6538</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6904956</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>323</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
